--- a/CE09OSPM/Omaha_Cal_Info_CE09OSPM_00003.xlsx
+++ b/CE09OSPM/Omaha_Cal_Info_CE09OSPM_00003.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauls\Documents\Project Info\WHOI\Marine Integration - OOI\OOInet Migration\Integration\Cal and Ingest Sheets\Sheets from -test 2015-08-19\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12705" yWindow="-15" windowWidth="12510" windowHeight="12405" tabRatio="377"/>
+    <workbookView xWindow="12708" yWindow="-12" windowWidth="12516" windowHeight="12408" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -30,7 +35,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$A$1:$J$79</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -300,7 +305,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -311,12 +316,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCECFF"/>
         <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -444,12 +443,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -467,6 +460,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -547,6 +546,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -594,7 +596,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -629,7 +631,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -840,28 +842,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K16" sqref="K16:K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="37.85546875"/>
-    <col min="2" max="2" width="39.42578125"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.42578125"/>
-    <col min="7" max="7" width="18.7109375"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875"/>
-    <col min="10" max="10" width="12.7109375"/>
-    <col min="11" max="11" width="51.7109375"/>
-    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="37.88671875"/>
+    <col min="2" max="2" width="39.44140625"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.44140625"/>
+    <col min="7" max="7" width="18.6640625"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875"/>
+    <col min="10" max="10" width="12.6640625"/>
+    <col min="11" max="11" width="51.6640625"/>
+    <col min="12" max="12" width="13.6640625" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="1026" width="8.7109375"/>
+    <col min="14" max="1026" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="31.5">
+    <row r="1" spans="1:13" ht="31.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -896,7 +898,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75">
+    <row r="2" spans="1:13" ht="15.6">
       <c r="A2" s="9" t="s">
         <v>33</v>
       </c>
@@ -913,10 +915,10 @@
         <v>0.10069444444444443</v>
       </c>
       <c r="F2" s="4"/>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="20" t="s">
         <v>52</v>
       </c>
       <c r="I2" s="5">
@@ -926,11 +928,11 @@
         <v>40</v>
       </c>
       <c r="K2" s="6"/>
-      <c r="L2" s="23">
+      <c r="L2" s="21">
         <f>((LEFT(G2,(FIND("°",G2,1)-1)))+(MID(G2,(FIND("°",G2,1)+1),(FIND("'",G2,1))-(FIND("°",G2,1)+1))/60))*(IF(RIGHT(G2,1)="N",1,-1))</f>
         <v>46.850555</v>
       </c>
-      <c r="M2" s="23">
+      <c r="M2" s="21">
         <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="E",1,-1))</f>
         <v>-124.9725</v>
       </c>
@@ -949,23 +951,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="32" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="1019" width="8.7109375" style="8"/>
-    <col min="1020" max="16384" width="9.140625" style="8"/>
+    <col min="4" max="4" width="20.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="1019" width="8.6640625" style="8"/>
+    <col min="1020" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5">
+    <row r="1" spans="1:6" ht="31.2">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -985,13 +987,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="27" customFormat="1" ht="15.75">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
+    <row r="2" spans="1:6" s="25" customFormat="1" ht="15.6">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="18" t="s">
@@ -1009,7 +1011,7 @@
       <c r="E3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="26">
         <v>-858.15</v>
       </c>
     </row>
@@ -1029,7 +1031,7 @@
       <c r="E4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="26">
         <v>46.850555</v>
       </c>
     </row>
@@ -1049,7 +1051,7 @@
       <c r="E5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="26">
         <v>-124.9725</v>
       </c>
     </row>
@@ -1069,7 +1071,7 @@
       <c r="E6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="26">
         <v>2.9231E-4</v>
       </c>
     </row>
@@ -1089,7 +1091,7 @@
       <c r="E7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="26">
         <v>-3.8888999999999998E-3</v>
       </c>
     </row>
@@ -1109,7 +1111,7 @@
       <c r="E8" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="26">
         <v>1.9353999999999999E-4</v>
       </c>
     </row>
@@ -1129,7 +1131,7 @@
       <c r="E9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="26">
         <v>-2.8588000000000001E-6</v>
       </c>
     </row>
@@ -1149,14 +1151,14 @@
       <c r="E10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="26">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="19"/>
       <c r="E11" s="19"/>
-      <c r="F11" s="7"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="19" t="s">
@@ -1174,7 +1176,7 @@
       <c r="E12" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="26">
         <v>46.850555</v>
       </c>
     </row>
@@ -1194,14 +1196,14 @@
       <c r="E13" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="26">
         <v>-124.9725</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="19"/>
       <c r="E14" s="19"/>
-      <c r="F14" s="7"/>
+      <c r="F14" s="27"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="19" t="s">
@@ -1219,7 +1221,7 @@
       <c r="E15" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="26">
         <v>46.850555</v>
       </c>
     </row>
@@ -1239,14 +1241,14 @@
       <c r="E16" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="26">
         <v>-124.9725</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="19"/>
       <c r="E17" s="19"/>
-      <c r="F17" s="7"/>
+      <c r="F17" s="27"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="19" t="s">
@@ -1264,7 +1266,7 @@
       <c r="E18" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="27">
         <v>1.08</v>
       </c>
     </row>
@@ -1284,7 +1286,7 @@
       <c r="E19" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="27">
         <v>48</v>
       </c>
     </row>
@@ -1304,7 +1306,7 @@
       <c r="E20" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="27">
         <v>49</v>
       </c>
     </row>
@@ -1324,7 +1326,7 @@
       <c r="E21" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="27">
         <v>48</v>
       </c>
     </row>
@@ -1344,7 +1346,7 @@
       <c r="E22" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="27">
         <v>3.9E-2</v>
       </c>
     </row>
@@ -1364,7 +1366,7 @@
       <c r="E23" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="27">
         <v>700</v>
       </c>
     </row>
@@ -1384,7 +1386,7 @@
       <c r="E24" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="27">
         <v>8.3099999999999993E-2</v>
       </c>
     </row>
@@ -1404,7 +1406,7 @@
       <c r="E25" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="27">
         <v>1.1900000000000001E-2</v>
       </c>
     </row>
@@ -1424,7 +1426,7 @@
       <c r="E26" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="27">
         <v>3.23E-6</v>
       </c>
     </row>
@@ -1444,14 +1446,14 @@
       <c r="E27" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="27">
         <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="19"/>
       <c r="E28" s="19"/>
-      <c r="F28" s="7"/>
+      <c r="F28" s="27"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="19" t="s">

--- a/CE09OSPM/Omaha_Cal_Info_CE09OSPM_00003.xlsx
+++ b/CE09OSPM/Omaha_Cal_Info_CE09OSPM_00003.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauls\Documents\Project Info\WHOI\Marine Integration - OOI\OOInet Migration\Integration\Cal and Ingest Sheets\Sheets from -test 2015-08-19\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12708" yWindow="-12" windowWidth="12516" windowHeight="12408" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="12705" yWindow="-15" windowWidth="12510" windowHeight="12405" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -35,7 +30,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$A$1:$J$79</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -596,7 +591,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -631,7 +626,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -842,28 +837,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16:K17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.88671875"/>
-    <col min="2" max="2" width="39.44140625"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.44140625"/>
-    <col min="7" max="7" width="18.6640625"/>
-    <col min="8" max="8" width="18.6640625" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875"/>
-    <col min="10" max="10" width="12.6640625"/>
-    <col min="11" max="11" width="51.6640625"/>
-    <col min="12" max="12" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="37.85546875"/>
+    <col min="2" max="2" width="39.42578125"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.42578125"/>
+    <col min="7" max="7" width="18.7109375"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875"/>
+    <col min="10" max="10" width="12.7109375"/>
+    <col min="11" max="11" width="51.7109375"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="1026" width="8.6640625"/>
+    <col min="14" max="1026" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="31.2">
+    <row r="1" spans="1:13" ht="31.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -898,7 +893,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.6">
+    <row r="2" spans="1:13" ht="15.75">
       <c r="A2" s="9" t="s">
         <v>33</v>
       </c>
@@ -951,23 +946,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="1019" width="8.6640625" style="8"/>
-    <col min="1020" max="16384" width="9.109375" style="8"/>
+    <col min="4" max="4" width="20.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="1019" width="8.7109375" style="8"/>
+    <col min="1020" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.2">
+    <row r="1" spans="1:6" ht="31.5">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -987,7 +982,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="25" customFormat="1" ht="15.6">
+    <row r="2" spans="1:6" s="25" customFormat="1" ht="15.75">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -1267,7 +1262,7 @@
         <v>47</v>
       </c>
       <c r="F18" s="27">
-        <v>1.08</v>
+        <v>1.0760000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1447,7 +1442,7 @@
         <v>50</v>
       </c>
       <c r="F27" s="27">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:7">

--- a/CE09OSPM/Omaha_Cal_Info_CE09OSPM_00003.xlsx
+++ b/CE09OSPM/Omaha_Cal_Info_CE09OSPM_00003.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12705" yWindow="-15" windowWidth="12510" windowHeight="12405" tabRatio="377"/>
+    <workbookView xWindow="12705" yWindow="-15" windowWidth="12510" windowHeight="12405" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="58">
   <si>
     <t>Ref Des</t>
   </si>
@@ -218,6 +218,18 @@
       </rPr>
       <t>-VEL3DK000</t>
     </r>
+  </si>
+  <si>
+    <t>chi factor</t>
+  </si>
+  <si>
+    <t>probe dark [mV]</t>
+  </si>
+  <si>
+    <t>[V/(quanta/cm2-sec)]</t>
+  </si>
+  <si>
+    <t>use adjusted Soc</t>
   </si>
 </sst>
 </file>
@@ -837,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -904,12 +916,14 @@
         <v>3</v>
       </c>
       <c r="D2" s="4">
-        <v>42100</v>
+        <v>42099</v>
       </c>
       <c r="E2" s="10">
         <v>0.10069444444444443</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="4">
+        <v>42294</v>
+      </c>
       <c r="G2" s="20" t="s">
         <v>51</v>
       </c>
@@ -944,10 +958,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -958,11 +972,12 @@
     <col min="4" max="4" width="20.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="1019" width="8.7109375" style="8"/>
+    <col min="7" max="7" width="26.28515625" style="8" customWidth="1"/>
+    <col min="8" max="1019" width="8.7109375" style="8"/>
     <col min="1020" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5">
+    <row r="1" spans="1:7" ht="31.5">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -981,8 +996,11 @@
       <c r="F1" s="17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="25" customFormat="1" ht="15.75">
+      <c r="G1" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="25" customFormat="1" ht="15.75">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -990,107 +1008,71 @@
       <c r="E2" s="23"/>
       <c r="F2" s="24"/>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="11">
-        <v>3</v>
-      </c>
-      <c r="D3" s="11">
-        <v>2496</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="26">
-        <v>-858.15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="11">
-        <v>3</v>
-      </c>
-      <c r="D4" s="11">
-        <v>2496</v>
-      </c>
-      <c r="E4" s="18" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="8">
+        <v>3</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="19"/>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="8">
+        <v>3</v>
+      </c>
+      <c r="D5" s="8">
+        <v>110</v>
+      </c>
+      <c r="E5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F5" s="26">
         <v>46.850555</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="11">
-        <v>3</v>
-      </c>
-      <c r="D5" s="11">
-        <v>2496</v>
-      </c>
-      <c r="E5" s="18" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="8">
+        <v>3</v>
+      </c>
+      <c r="D6" s="8">
+        <v>110</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F6" s="26">
         <v>-124.9725</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="11">
-        <v>3</v>
-      </c>
-      <c r="D6" s="11">
-        <v>2496</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="26">
-        <v>2.9231E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="11">
-        <v>3</v>
-      </c>
-      <c r="D7" s="11">
-        <v>2496</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="26">
-        <v>-3.8888999999999998E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+    <row r="7" spans="1:7">
+      <c r="A7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="27"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="18" t="s">
         <v>34</v>
       </c>
@@ -1104,13 +1086,13 @@
         <v>2496</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F8" s="26">
-        <v>1.9353999999999999E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>46.850555</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="18" t="s">
         <v>34</v>
       </c>
@@ -1124,13 +1106,13 @@
         <v>2496</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F9" s="26">
-        <v>-2.8588000000000001E-6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-124.9725</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="18" t="s">
         <v>34</v>
       </c>
@@ -1144,106 +1126,142 @@
         <v>2496</v>
       </c>
       <c r="E10" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="26">
+        <v>2.9231E-4</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="11">
+        <v>3</v>
+      </c>
+      <c r="D11" s="11">
+        <v>2496</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="26">
+        <v>-858.15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="11">
+        <v>3</v>
+      </c>
+      <c r="D12" s="11">
+        <v>2496</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="26">
+        <v>-3.8888999999999998E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="11">
+        <v>3</v>
+      </c>
+      <c r="D13" s="11">
+        <v>2496</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="26">
+        <v>1.9353999999999999E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="11">
+        <v>3</v>
+      </c>
+      <c r="D14" s="11">
+        <v>2496</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="26">
+        <v>-2.8588000000000001E-6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="11">
+        <v>3</v>
+      </c>
+      <c r="D15" s="11">
+        <v>2496</v>
+      </c>
+      <c r="E15" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F15" s="26">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="27"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="8">
-        <v>3</v>
-      </c>
-      <c r="D12" s="8">
-        <v>110</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="26">
-        <v>46.850555</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="8">
-        <v>3</v>
-      </c>
-      <c r="D13" s="8">
-        <v>110</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="26">
-        <v>-124.9725</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="27"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="8">
-        <v>3</v>
-      </c>
-      <c r="D15" s="8">
-        <v>100014</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="26">
-        <v>46.850555</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="8">
-        <v>3</v>
-      </c>
-      <c r="D16" s="8">
-        <v>100014</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="26">
-        <v>-124.9725</v>
-      </c>
+    <row r="16" spans="1:7">
+      <c r="A16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="27"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="27"/>
+      <c r="A17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="8">
+        <v>3</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1030</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="27">
+        <v>1.0760000000000001</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="19" t="s">
@@ -1259,10 +1277,10 @@
         <v>1030</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F18" s="27">
-        <v>1.0760000000000001</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1279,10 +1297,10 @@
         <v>1030</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F19" s="27">
-        <v>48</v>
+        <v>700</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1299,10 +1317,10 @@
         <v>1030</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="F20" s="27">
-        <v>49</v>
+        <v>3.9E-2</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1339,10 +1357,10 @@
         <v>1030</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="F22" s="27">
-        <v>3.9E-2</v>
+        <v>3.2329999999999998E-6</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1359,10 +1377,10 @@
         <v>1030</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="F23" s="27">
-        <v>700</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1399,10 +1417,10 @@
         <v>1030</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F25" s="27">
-        <v>1.1900000000000001E-2</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1419,36 +1437,39 @@
         <v>1030</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F26" s="27">
-        <v>3.23E-6</v>
+        <v>1.1900000000000001E-2</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="8">
-        <v>3</v>
-      </c>
-      <c r="D27" s="8">
-        <v>1030</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" s="27">
-        <v>124</v>
-      </c>
+      <c r="A27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="27"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="27"/>
+      <c r="A28" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="8">
+        <v>3</v>
+      </c>
+      <c r="D28" s="8">
+        <v>20438</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="19" t="s">
@@ -1464,40 +1485,43 @@
         <v>20438</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F29" s="7">
-        <v>1.2</v>
+        <v>1.0000000000000001E-17</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="8">
-        <v>3</v>
-      </c>
-      <c r="D30" s="8">
-        <v>20438</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30" s="7">
-        <v>1.0000000000000001E-17</v>
-      </c>
+      <c r="A30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="7"/>
+      <c r="A31" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="8">
+        <v>3</v>
+      </c>
+      <c r="D31" s="8">
+        <v>100014</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="26">
+        <v>46.850555</v>
+      </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="19" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>39</v>
@@ -1505,37 +1529,24 @@
       <c r="C32" s="8">
         <v>3</v>
       </c>
-      <c r="D32" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="13" t="s">
-        <v>46</v>
+      <c r="D32" s="8">
+        <v>100014</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="26">
+        <v>-124.9725</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="8">
-        <v>3</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>45</v>
-      </c>
+      <c r="A33" s="19"/>
       <c r="E33" s="19"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="13" t="s">
-        <v>46</v>
-      </c>
+      <c r="F33" s="27"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>39</v>
@@ -1543,13 +1554,36 @@
       <c r="C34" s="8">
         <v>3</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>41</v>
+      <c r="D34" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="E34" s="19"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="13" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="35" spans="1:7">
+      <c r="A35" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="8">
+        <v>3</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="E35" s="19"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="E36" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
